--- a/data/trans_orig/P14B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{103ED055-D635-4991-B395-0410101A4C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9654EBC3-268D-4308-A7B1-1031D578350A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A3DB3F1-93ED-4563-B9F7-C46ABBEAD5A6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A614893-0BAA-4AC7-BF3C-A3AAFBC317FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
   <si>
     <t>Población cuyo estreñimiento crónico le limita en 2012 (Tasa respuesta: 1,09%)</t>
   </si>
@@ -78,25 +78,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>83,51%</t>
+    <t>83,89%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,7 +105,7 @@
     <t>66,56%</t>
   </si>
   <si>
-    <t>16,49%</t>
+    <t>16,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -114,19 +114,19 @@
     <t>71,76%</t>
   </si>
   <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,19 +144,19 @@
     <t>20,86%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -165,19 +165,19 @@
     <t>79,14%</t>
   </si>
   <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -189,19 +189,19 @@
     <t>53,83%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>47,2%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -210,67 +210,61 @@
     <t>46,17%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>52,8%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>56,94%</t>
+    <t>57,13%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>18,28%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>43,06%</t>
+    <t>42,87%</t>
   </si>
   <si>
     <t>71,27%</t>
   </si>
   <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>81,72%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -291,19 +285,19 @@
     <t>27,74%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>72,8%</t>
@@ -318,19 +312,19 @@
     <t>72,26%</t>
   </si>
   <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -339,19 +333,19 @@
     <t>30,56%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -360,97 +354,97 @@
     <t>69,44%</t>
   </si>
   <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>56,95%</t>
+    <t>59,35%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>44,9%</t>
+    <t>51,04%</t>
   </si>
   <si>
     <t>87,49%</t>
   </si>
   <si>
-    <t>43,05%</t>
+    <t>40,65%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>55,1%</t>
+    <t>48,96%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
 </sst>
 </file>
@@ -862,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A642D930-3117-4ECA-82B9-04E55D9E39E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D992D0-A692-4346-B06E-CC83D4C747C7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1472,7 +1466,7 @@
         <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -1481,13 +1475,13 @@
         <v>21528</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1502,10 +1496,10 @@
         <v>7141</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -1517,13 +1511,13 @@
         <v>48193</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -1532,13 +1526,13 @@
         <v>55334</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,7 +1588,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F19C70-90F8-4718-8EFC-93FF151F66FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EDDB36-1DA2-4BDA-A174-D781FB4804D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1630,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1737,13 +1731,13 @@
         <v>2600</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -1752,13 +1746,13 @@
         <v>10392</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -1767,13 +1761,13 @@
         <v>12992</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,13 +1782,13 @@
         <v>6959</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -1803,13 +1797,13 @@
         <v>27074</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -1818,13 +1812,13 @@
         <v>34034</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,7 +1892,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -1907,13 +1901,13 @@
         <v>3919</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1922,13 +1916,13 @@
         <v>3919</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,7 +1940,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -1958,13 +1952,13 @@
         <v>8907</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1973,13 +1967,13 @@
         <v>13782</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,13 +2056,13 @@
         <v>1106</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2077,13 +2071,13 @@
         <v>1106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,10 +2107,10 @@
         <v>7733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -2128,10 +2122,10 @@
         <v>9860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>23</v>
@@ -2202,13 +2196,13 @@
         <v>2600</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2217,13 +2211,13 @@
         <v>15417</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2232,13 +2226,13 @@
         <v>18017</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2247,13 @@
         <v>13962</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -2268,13 +2262,13 @@
         <v>43714</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -2283,13 +2277,13 @@
         <v>57676</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,7 +2339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B07-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9654EBC3-268D-4308-A7B1-1031D578350A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4473AC77-2A61-475D-A12A-777C74CAC8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A614893-0BAA-4AC7-BF3C-A3AAFBC317FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8565E5BA-8D1B-4E8A-99BA-11484FE85D15}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
   <si>
     <t>Población cuyo estreñimiento crónico le limita en 2012 (Tasa respuesta: 1,09%)</t>
   </si>
@@ -78,25 +78,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>83,89%</t>
+    <t>68,2%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,7 +105,7 @@
     <t>66,56%</t>
   </si>
   <si>
-    <t>16,11%</t>
+    <t>31,8%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -114,19 +114,19 @@
     <t>71,76%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,19 +144,19 @@
     <t>20,86%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -165,19 +165,19 @@
     <t>79,14%</t>
   </si>
   <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -228,103 +228,109 @@
     <t>22,73%</t>
   </si>
   <si>
-    <t>57,13%</t>
+    <t>57,05%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,28%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>42,87%</t>
+    <t>42,95%</t>
   </si>
   <si>
     <t>71,27%</t>
   </si>
   <si>
-    <t>81,72%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo estreñimiento crónico le limita en 2015 (Tasa respuesta: 1,04%)</t>
+    <t>Población cuyo estreñimiento crónico le limita en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>27,2%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
   </si>
   <si>
     <t>27,74%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
   </si>
   <si>
     <t>27,63%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
   </si>
   <si>
     <t>72,8%</t>
   </si>
   <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>72,37%</t>
   </si>
   <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -333,19 +339,19 @@
     <t>30,56%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -354,97 +360,97 @@
     <t>69,44%</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>77,86%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>59,35%</t>
+    <t>58,19%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>51,04%</t>
+    <t>47,72%</t>
   </si>
   <si>
     <t>87,49%</t>
   </si>
   <si>
-    <t>40,65%</t>
+    <t>41,81%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>48,96%</t>
+    <t>52,28%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
 </sst>
 </file>
@@ -856,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D992D0-A692-4346-B06E-CC83D4C747C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F69AA7-9E20-4678-BD5A-93B1900B3C8B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1466,7 +1472,7 @@
         <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -1475,13 +1481,13 @@
         <v>21528</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1496,10 +1502,10 @@
         <v>7141</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -1511,13 +1517,13 @@
         <v>48193</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -1526,13 +1532,13 @@
         <v>55334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1588,7 +1594,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EDDB36-1DA2-4BDA-A174-D781FB4804D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F761AE0-C5E0-4D07-9A22-066F816DEE39}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1624,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1731,13 +1737,13 @@
         <v>2600</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -1746,13 +1752,13 @@
         <v>10392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -1761,13 +1767,13 @@
         <v>12992</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,13 +1788,13 @@
         <v>6959</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -1797,13 +1803,13 @@
         <v>27074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -1812,13 +1818,13 @@
         <v>34034</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,7 +1898,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -1901,13 +1907,13 @@
         <v>3919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1916,13 +1922,13 @@
         <v>3919</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,7 +1946,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -1952,13 +1958,13 @@
         <v>8907</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1967,13 +1973,13 @@
         <v>13782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2056,13 +2062,13 @@
         <v>1106</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2071,13 +2077,13 @@
         <v>1106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,10 +2113,10 @@
         <v>7733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -2122,10 +2128,10 @@
         <v>9860</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>23</v>
@@ -2196,13 +2202,13 @@
         <v>2600</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -2211,13 +2217,13 @@
         <v>15417</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2226,13 +2232,13 @@
         <v>18017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,13 +2253,13 @@
         <v>13962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>37</v>
@@ -2262,13 +2268,13 @@
         <v>43714</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>51</v>
@@ -2277,13 +2283,13 @@
         <v>57676</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,7 +2345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
